--- a/Daily Report.xlsx
+++ b/Daily Report.xlsx
@@ -1,15 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="164011"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="21425"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\zeeshan sheikh\Desktop\project2\CP19_20\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\hamza\Desktop\project\CP19_20\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7485561A-FA5A-4265-B4BB-62C23F1AECE3}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20490" windowHeight="7650"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hamza" sheetId="1" r:id="rId1"/>
@@ -28,7 +29,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="18" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="24" uniqueCount="12">
   <si>
     <t>Daily Report</t>
   </si>
@@ -47,11 +48,29 @@
   <si>
     <t>Fixed all the errors ,  import the dlib library successfully , Face detection is working now</t>
   </si>
+  <si>
+    <t>Learn image processing on gray frame</t>
+  </si>
+  <si>
+    <t>learn dlib library</t>
+  </si>
+  <si>
+    <t>Start face detection</t>
+  </si>
+  <si>
+    <t>flip  the frame</t>
+  </si>
+  <si>
+    <t>start working on GUI using thinter</t>
+  </si>
+  <si>
+    <t>Made a GUI example and uploaded to github</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" mc:Ignorable="x14ac x16r2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="[$]d\ mmmm\ yyyy;@" x16r2:formatCode16="[$-en-PK,1]d\ mmmm\ yyyy;@"/>
   </numFmts>
@@ -438,11 +457,11 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView tabSelected="1" view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
-      <selection activeCell="B7" sqref="B7:G7"/>
+      <selection activeCell="B14" sqref="B14:G14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -536,7 +555,9 @@
       <c r="A8" s="2">
         <v>43578</v>
       </c>
-      <c r="B8" s="3"/>
+      <c r="B8" s="3" t="s">
+        <v>6</v>
+      </c>
       <c r="C8" s="3"/>
       <c r="D8" s="3"/>
       <c r="E8" s="3"/>
@@ -547,7 +568,9 @@
       <c r="A9" s="2">
         <v>43579</v>
       </c>
-      <c r="B9" s="3"/>
+      <c r="B9" s="3" t="s">
+        <v>7</v>
+      </c>
       <c r="C9" s="3"/>
       <c r="D9" s="3"/>
       <c r="E9" s="3"/>
@@ -558,7 +581,9 @@
       <c r="A10" s="2">
         <v>43580</v>
       </c>
-      <c r="B10" s="3"/>
+      <c r="B10" s="3" t="s">
+        <v>8</v>
+      </c>
       <c r="C10" s="3"/>
       <c r="D10" s="3"/>
       <c r="E10" s="3"/>
@@ -569,7 +594,9 @@
       <c r="A11" s="2">
         <v>43581</v>
       </c>
-      <c r="B11" s="3"/>
+      <c r="B11" s="3" t="s">
+        <v>9</v>
+      </c>
       <c r="C11" s="3"/>
       <c r="D11" s="3"/>
       <c r="E11" s="3"/>
@@ -580,7 +607,9 @@
       <c r="A12" s="2">
         <v>43582</v>
       </c>
-      <c r="B12" s="3"/>
+      <c r="B12" s="3" t="s">
+        <v>10</v>
+      </c>
       <c r="C12" s="3"/>
       <c r="D12" s="3"/>
       <c r="E12" s="3"/>
@@ -591,7 +620,9 @@
       <c r="A13" s="2">
         <v>43583</v>
       </c>
-      <c r="B13" s="3"/>
+      <c r="B13" s="3" t="s">
+        <v>11</v>
+      </c>
       <c r="C13" s="3"/>
       <c r="D13" s="3"/>
       <c r="E13" s="3"/>
@@ -963,17 +994,27 @@
     </row>
   </sheetData>
   <mergeCells count="44">
-    <mergeCell ref="B13:G13"/>
-    <mergeCell ref="A1:G3"/>
-    <mergeCell ref="B4:G4"/>
-    <mergeCell ref="B5:G5"/>
-    <mergeCell ref="B6:G6"/>
-    <mergeCell ref="B7:G7"/>
-    <mergeCell ref="B8:G8"/>
-    <mergeCell ref="B9:G9"/>
-    <mergeCell ref="B10:G10"/>
-    <mergeCell ref="B11:G11"/>
-    <mergeCell ref="B12:G12"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
     <mergeCell ref="B25:G25"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="B15:G15"/>
@@ -986,27 +1027,17 @@
     <mergeCell ref="B22:G22"/>
     <mergeCell ref="B23:G23"/>
     <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B44:G44"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B13:G13"/>
+    <mergeCell ref="A1:G3"/>
+    <mergeCell ref="B4:G4"/>
+    <mergeCell ref="B5:G5"/>
+    <mergeCell ref="B6:G6"/>
+    <mergeCell ref="B7:G7"/>
+    <mergeCell ref="B8:G8"/>
+    <mergeCell ref="B9:G9"/>
+    <mergeCell ref="B10:G10"/>
+    <mergeCell ref="B11:G11"/>
+    <mergeCell ref="B12:G12"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1014,7 +1045,7 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0100-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
@@ -1533,6 +1564,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -1545,38 +1608,6 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -1584,7 +1615,7 @@
 </file>
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0200-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="115" zoomScaleNormal="100" zoomScaleSheetLayoutView="115" workbookViewId="0">
@@ -2103,6 +2134,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -2115,38 +2178,6 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="59" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2154,7 +2185,7 @@
 </file>
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0300-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" topLeftCell="B1" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
@@ -2673,6 +2704,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -2685,38 +2748,6 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="66" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
@@ -2724,7 +2755,7 @@
 </file>
 
 <file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0400-000000000000}">
   <dimension ref="A1:G46"/>
   <sheetViews>
     <sheetView view="pageBreakPreview" zoomScale="130" zoomScaleNormal="100" zoomScaleSheetLayoutView="130" workbookViewId="0">
@@ -3243,6 +3274,38 @@
     </row>
   </sheetData>
   <mergeCells count="44">
+    <mergeCell ref="B45:G45"/>
+    <mergeCell ref="B46:G46"/>
+    <mergeCell ref="B39:G39"/>
+    <mergeCell ref="B40:G40"/>
+    <mergeCell ref="B41:G41"/>
+    <mergeCell ref="B42:G42"/>
+    <mergeCell ref="B43:G43"/>
+    <mergeCell ref="B44:G44"/>
+    <mergeCell ref="B38:G38"/>
+    <mergeCell ref="B27:G27"/>
+    <mergeCell ref="B28:G28"/>
+    <mergeCell ref="B29:G29"/>
+    <mergeCell ref="B30:G30"/>
+    <mergeCell ref="B31:G31"/>
+    <mergeCell ref="B32:G32"/>
+    <mergeCell ref="B33:G33"/>
+    <mergeCell ref="B34:G34"/>
+    <mergeCell ref="B35:G35"/>
+    <mergeCell ref="B36:G36"/>
+    <mergeCell ref="B37:G37"/>
+    <mergeCell ref="B26:G26"/>
+    <mergeCell ref="B15:G15"/>
+    <mergeCell ref="B16:G16"/>
+    <mergeCell ref="B17:G17"/>
+    <mergeCell ref="B18:G18"/>
+    <mergeCell ref="B19:G19"/>
+    <mergeCell ref="B20:G20"/>
+    <mergeCell ref="B21:G21"/>
+    <mergeCell ref="B22:G22"/>
+    <mergeCell ref="B23:G23"/>
+    <mergeCell ref="B24:G24"/>
+    <mergeCell ref="B25:G25"/>
     <mergeCell ref="B14:G14"/>
     <mergeCell ref="A1:G3"/>
     <mergeCell ref="B4:G4"/>
@@ -3255,38 +3318,6 @@
     <mergeCell ref="B11:G11"/>
     <mergeCell ref="B12:G12"/>
     <mergeCell ref="B13:G13"/>
-    <mergeCell ref="B26:G26"/>
-    <mergeCell ref="B15:G15"/>
-    <mergeCell ref="B16:G16"/>
-    <mergeCell ref="B17:G17"/>
-    <mergeCell ref="B18:G18"/>
-    <mergeCell ref="B19:G19"/>
-    <mergeCell ref="B20:G20"/>
-    <mergeCell ref="B21:G21"/>
-    <mergeCell ref="B22:G22"/>
-    <mergeCell ref="B23:G23"/>
-    <mergeCell ref="B24:G24"/>
-    <mergeCell ref="B25:G25"/>
-    <mergeCell ref="B38:G38"/>
-    <mergeCell ref="B27:G27"/>
-    <mergeCell ref="B28:G28"/>
-    <mergeCell ref="B29:G29"/>
-    <mergeCell ref="B30:G30"/>
-    <mergeCell ref="B31:G31"/>
-    <mergeCell ref="B32:G32"/>
-    <mergeCell ref="B33:G33"/>
-    <mergeCell ref="B34:G34"/>
-    <mergeCell ref="B35:G35"/>
-    <mergeCell ref="B36:G36"/>
-    <mergeCell ref="B37:G37"/>
-    <mergeCell ref="B45:G45"/>
-    <mergeCell ref="B46:G46"/>
-    <mergeCell ref="B39:G39"/>
-    <mergeCell ref="B40:G40"/>
-    <mergeCell ref="B41:G41"/>
-    <mergeCell ref="B42:G42"/>
-    <mergeCell ref="B43:G43"/>
-    <mergeCell ref="B44:G44"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="65" orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId1"/>
